--- a/docs/ValueSet-IHE.formatcode.vs.xlsx
+++ b/docs/ValueSet-IHE.formatcode.vs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: urn:oid:1.3.6.1.4.1.19376.1.2.7.1</t>
+    <t>OID:1.3.6.1.4.1.19376.1.2.7.1</t>
   </si>
   <si>
     <t>Version</t>
@@ -78,7 +78,10 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>IHE (http://ihe.net)</t>
+  </si>
+  <si>
+    <t>John Moehrke (JohnMoehrke@gmail.com)</t>
   </si>
   <si>
     <t>Description</t>
@@ -351,37 +354,37 @@
         <v>20</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -403,28 +406,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
